--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC93-TORNILLERA AV # 1 TITANIO ME.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC93-TORNILLERA AV # 1 TITANIO ME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC57B5-49B4-4A1D-9927-B1D7D90197AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495ACBFD-E4AF-4644-8942-F6CD595A90A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="1" r:id="rId1"/>
@@ -1271,14 +1271,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1288,12 +1294,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1728,8 +1728,8 @@
   </sheetPr>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2129,37 +2129,37 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="43"/>
@@ -2180,13 +2180,13 @@
       <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="83"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="67">
         <f ca="1">NOW()</f>
-        <v>45391.673976157406</v>
+        <v>45398.436977893522</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>56</v>
@@ -2205,10 +2205,10 @@
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="48"/>
       <c r="D9" s="49" t="s">
         <v>58</v>
@@ -2227,10 +2227,10 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="52"/>
       <c r="D11" s="49" t="s">
         <v>60</v>
@@ -2251,10 +2251,10 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="67"/>
       <c r="D13" s="49" t="s">
         <v>62</v>
@@ -2273,10 +2273,10 @@
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="48"/>
       <c r="D15" s="31"/>
       <c r="E15" s="57"/>
@@ -2293,10 +2293,10 @@
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="48"/>
       <c r="D17" s="49" t="s">
         <v>78</v>
@@ -2315,10 +2315,10 @@
       <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="83"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="46"/>
       <c r="D19" s="47"/>
       <c r="E19" s="58"/>
@@ -3030,7 +3030,7 @@
         <v>154</v>
       </c>
       <c r="D58" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E58" s="35"/>
       <c r="F58" s="37"/>
@@ -3119,7 +3119,7 @@
       <c r="C63" s="70"/>
       <c r="D63" s="71">
         <f>SUM(D53:D62)</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E63" s="35"/>
       <c r="F63" s="37"/>
@@ -3587,16 +3587,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4027,15 +4027,15 @@
       <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:16" customFormat="1" ht="18">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="63"/>
       <c r="I2" s="63"/>
       <c r="J2" s="63"/>
@@ -4044,15 +4044,15 @@
       <c r="M2" s="65"/>
     </row>
     <row r="3" spans="1:16" customFormat="1" ht="23.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
@@ -4061,23 +4061,23 @@
       <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:16" customFormat="1" ht="23.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
       <c r="M4" s="66"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
@@ -4089,8 +4089,8 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="1"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="43"/>
@@ -4105,13 +4105,13 @@
       <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="83"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="67">
         <f ca="1">NOW()</f>
-        <v>45391.673976157406</v>
+        <v>45398.436977893522</v>
       </c>
       <c r="D7" s="45" t="s">
         <v>56</v>
@@ -4136,10 +4136,10 @@
       <c r="O8" s="44"/>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="48"/>
       <c r="D9" s="49" t="s">
         <v>58</v>
@@ -4164,10 +4164,10 @@
       <c r="O10" s="44"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="52"/>
       <c r="D11" s="49" t="s">
         <v>60</v>
@@ -4194,10 +4194,10 @@
       <c r="O12" s="53"/>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="67"/>
       <c r="D13" s="49" t="s">
         <v>62</v>
@@ -4222,10 +4222,10 @@
       <c r="O14" s="56"/>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="48"/>
       <c r="D15" s="31"/>
       <c r="E15" s="57"/>
@@ -4248,10 +4248,10 @@
       <c r="O16" s="56"/>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="48"/>
       <c r="D17" s="49" t="s">
         <v>78</v>
@@ -4276,10 +4276,10 @@
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="83"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="46"/>
       <c r="D19" s="47"/>
       <c r="E19" s="58"/>
@@ -4302,15 +4302,15 @@
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="1"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -5063,8 +5063,8 @@
       <c r="O56" s="7"/>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="85"/>
-      <c r="C58" s="86"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="88"/>
       <c r="F58" s="20"/>
       <c r="G58" s="9"/>
     </row>
@@ -5243,12 +5243,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -5256,6 +5250,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
